--- a/natmiOut/YoungD4/LR-pairs_lrc2p/C1qb-Lrp1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/C1qb-Lrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>C1qb</t>
   </si>
   <si>
     <t>Lrp1</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>307.917235770102</v>
+        <v>2.947789333333333</v>
       </c>
       <c r="H2">
-        <v>307.917235770102</v>
+        <v>8.843368</v>
       </c>
       <c r="I2">
-        <v>0.553338227002236</v>
+        <v>0.004546343240452627</v>
       </c>
       <c r="J2">
-        <v>0.553338227002236</v>
+        <v>0.004546343240452628</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.19882538444689</v>
+        <v>6.744736333333333</v>
       </c>
       <c r="N2">
-        <v>5.19882538444689</v>
+        <v>20.234209</v>
       </c>
       <c r="O2">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="P2">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="Q2">
-        <v>1600.807941630324</v>
+        <v>19.88206181954578</v>
       </c>
       <c r="R2">
-        <v>1600.807941630324</v>
+        <v>178.938556375912</v>
       </c>
       <c r="S2">
-        <v>0.004540100512480347</v>
+        <v>4.770355535287066E-05</v>
       </c>
       <c r="T2">
-        <v>0.004540100512480347</v>
+        <v>4.770355535287067E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>307.917235770102</v>
+        <v>2.947789333333333</v>
       </c>
       <c r="H3">
-        <v>307.917235770102</v>
+        <v>8.843368</v>
       </c>
       <c r="I3">
-        <v>0.553338227002236</v>
+        <v>0.004546343240452627</v>
       </c>
       <c r="J3">
-        <v>0.553338227002236</v>
+        <v>0.004546343240452628</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>182.049377209107</v>
+        <v>182.5316823333334</v>
       </c>
       <c r="N3">
-        <v>182.049377209107</v>
+        <v>547.595047</v>
       </c>
       <c r="O3">
-        <v>0.2873153044929174</v>
+        <v>0.283963033503136</v>
       </c>
       <c r="P3">
-        <v>0.2873153044929174</v>
+        <v>0.2839630335031361</v>
       </c>
       <c r="Q3">
-        <v>56056.14100389684</v>
+        <v>538.0649461775885</v>
       </c>
       <c r="R3">
-        <v>56056.14100389684</v>
+        <v>4842.584515598296</v>
       </c>
       <c r="S3">
-        <v>0.1589825411787185</v>
+        <v>0.001290993417905405</v>
       </c>
       <c r="T3">
-        <v>0.1589825411787185</v>
+        <v>0.001290993417905406</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>307.917235770102</v>
+        <v>2.947789333333333</v>
       </c>
       <c r="H4">
-        <v>307.917235770102</v>
+        <v>8.843368</v>
       </c>
       <c r="I4">
-        <v>0.553338227002236</v>
+        <v>0.004546343240452627</v>
       </c>
       <c r="J4">
-        <v>0.553338227002236</v>
+        <v>0.004546343240452628</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>248.975499920352</v>
+        <v>249.1329143333333</v>
       </c>
       <c r="N4">
-        <v>248.975499920352</v>
+        <v>747.398743</v>
       </c>
       <c r="O4">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="P4">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="Q4">
-        <v>76663.84770995405</v>
+        <v>734.391347454047</v>
       </c>
       <c r="R4">
-        <v>76663.84770995405</v>
+        <v>6609.522127086424</v>
       </c>
       <c r="S4">
-        <v>0.2174286903663149</v>
+        <v>0.001762044530990386</v>
       </c>
       <c r="T4">
-        <v>0.2174286903663149</v>
+        <v>0.001762044530990387</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>307.917235770102</v>
+        <v>2.947789333333333</v>
       </c>
       <c r="H5">
-        <v>307.917235770102</v>
+        <v>8.843368</v>
       </c>
       <c r="I5">
-        <v>0.553338227002236</v>
+        <v>0.004546343240452627</v>
       </c>
       <c r="J5">
-        <v>0.553338227002236</v>
+        <v>0.004546343240452628</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>181.911640839075</v>
+        <v>186.9310863333334</v>
       </c>
       <c r="N5">
-        <v>181.911640839075</v>
+        <v>560.793259</v>
       </c>
       <c r="O5">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="P5">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="Q5">
-        <v>56013.72960157158</v>
+        <v>551.0334623618124</v>
       </c>
       <c r="R5">
-        <v>56013.72960157158</v>
+        <v>4959.301161256312</v>
       </c>
       <c r="S5">
-        <v>0.1588622568994965</v>
+        <v>0.001322109120856824</v>
       </c>
       <c r="T5">
-        <v>0.1588622568994965</v>
+        <v>0.001322109120856824</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>307.917235770102</v>
+        <v>2.947789333333333</v>
       </c>
       <c r="H6">
-        <v>307.917235770102</v>
+        <v>8.843368</v>
       </c>
       <c r="I6">
-        <v>0.553338227002236</v>
+        <v>0.004546343240452627</v>
       </c>
       <c r="J6">
-        <v>0.553338227002236</v>
+        <v>0.004546343240452628</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.4869328094595</v>
+        <v>17.46044133333334</v>
       </c>
       <c r="N6">
-        <v>15.4869328094595</v>
+        <v>52.38132400000001</v>
       </c>
       <c r="O6">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="P6">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="Q6">
-        <v>4768.693541246069</v>
+        <v>51.46970271769245</v>
       </c>
       <c r="R6">
-        <v>4768.693541246069</v>
+        <v>463.2273244592321</v>
       </c>
       <c r="S6">
-        <v>0.01352463804522575</v>
+        <v>0.0001234926153471407</v>
       </c>
       <c r="T6">
-        <v>0.01352463804522575</v>
+        <v>0.0001234926153471408</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>248.554774917238</v>
+        <v>308.142446</v>
       </c>
       <c r="H7">
-        <v>248.554774917238</v>
+        <v>924.427338</v>
       </c>
       <c r="I7">
-        <v>0.4466617729977641</v>
+        <v>0.4752447234363555</v>
       </c>
       <c r="J7">
-        <v>0.4466617729977641</v>
+        <v>0.4752447234363555</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.19882538444689</v>
+        <v>6.744736333333333</v>
       </c>
       <c r="N7">
-        <v>5.19882538444689</v>
+        <v>20.234209</v>
       </c>
       <c r="O7">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="P7">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="Q7">
-        <v>1292.19287326522</v>
+        <v>2078.339551378404</v>
       </c>
       <c r="R7">
-        <v>1292.19287326522</v>
+        <v>18705.05596240564</v>
       </c>
       <c r="S7">
-        <v>0.003664827849467076</v>
+        <v>0.004986614905993947</v>
       </c>
       <c r="T7">
-        <v>0.003664827849467076</v>
+        <v>0.004986614905993948</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>248.554774917238</v>
+        <v>308.142446</v>
       </c>
       <c r="H8">
-        <v>248.554774917238</v>
+        <v>924.427338</v>
       </c>
       <c r="I8">
-        <v>0.4466617729977641</v>
+        <v>0.4752447234363555</v>
       </c>
       <c r="J8">
-        <v>0.4466617729977641</v>
+        <v>0.4752447234363555</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>182.049377209107</v>
+        <v>182.5316823333334</v>
       </c>
       <c r="N8">
-        <v>182.049377209107</v>
+        <v>547.595047</v>
       </c>
       <c r="O8">
-        <v>0.2873153044929174</v>
+        <v>0.283963033503136</v>
       </c>
       <c r="P8">
-        <v>0.2873153044929174</v>
+        <v>0.2839630335031361</v>
       </c>
       <c r="Q8">
-        <v>45249.24197603295</v>
+        <v>56245.75906668833</v>
       </c>
       <c r="R8">
-        <v>45249.24197603295</v>
+        <v>506211.8316001949</v>
       </c>
       <c r="S8">
-        <v>0.128332763314199</v>
+        <v>0.1349519333233464</v>
       </c>
       <c r="T8">
-        <v>0.128332763314199</v>
+        <v>0.1349519333233465</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>248.554774917238</v>
+        <v>308.142446</v>
       </c>
       <c r="H9">
-        <v>248.554774917238</v>
+        <v>924.427338</v>
       </c>
       <c r="I9">
-        <v>0.4466617729977641</v>
+        <v>0.4752447234363555</v>
       </c>
       <c r="J9">
-        <v>0.4466617729977641</v>
+        <v>0.4752447234363555</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>248.975499920352</v>
+        <v>249.1329143333333</v>
       </c>
       <c r="N9">
-        <v>248.975499920352</v>
+        <v>747.398743</v>
       </c>
       <c r="O9">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="P9">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="Q9">
-        <v>61884.04934260991</v>
+        <v>76768.4256017818</v>
       </c>
       <c r="R9">
-        <v>61884.04934260991</v>
+        <v>690915.8304160361</v>
       </c>
       <c r="S9">
-        <v>0.1755112508053915</v>
+        <v>0.1841925084674641</v>
       </c>
       <c r="T9">
-        <v>0.1755112508053915</v>
+        <v>0.1841925084674642</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>248.554774917238</v>
+        <v>308.142446</v>
       </c>
       <c r="H10">
-        <v>248.554774917238</v>
+        <v>924.427338</v>
       </c>
       <c r="I10">
-        <v>0.4466617729977641</v>
+        <v>0.4752447234363555</v>
       </c>
       <c r="J10">
-        <v>0.4466617729977641</v>
+        <v>0.4752447234363555</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>181.911640839075</v>
+        <v>186.9310863333334</v>
       </c>
       <c r="N10">
-        <v>181.911640839075</v>
+        <v>560.793259</v>
       </c>
       <c r="O10">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="P10">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="Q10">
-        <v>45215.00694358173</v>
+        <v>57601.40217619051</v>
       </c>
       <c r="R10">
-        <v>45215.00694358173</v>
+        <v>518412.6195857145</v>
       </c>
       <c r="S10">
-        <v>0.1282356682884095</v>
+        <v>0.1382045635937794</v>
       </c>
       <c r="T10">
-        <v>0.1282356682884095</v>
+        <v>0.1382045635937794</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,681 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>308.142446</v>
+      </c>
+      <c r="H11">
+        <v>924.427338</v>
+      </c>
+      <c r="I11">
+        <v>0.4752447234363555</v>
+      </c>
+      <c r="J11">
+        <v>0.4752447234363555</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>17.46044133333334</v>
+      </c>
+      <c r="N11">
+        <v>52.38132400000001</v>
+      </c>
+      <c r="O11">
+        <v>0.02716306464684043</v>
+      </c>
+      <c r="P11">
+        <v>0.02716306464684043</v>
+      </c>
+      <c r="Q11">
+        <v>5380.303100692836</v>
+      </c>
+      <c r="R11">
+        <v>48422.72790623552</v>
+      </c>
+      <c r="S11">
+        <v>0.01290910314577152</v>
+      </c>
+      <c r="T11">
+        <v>0.01290910314577153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>337.0620703333333</v>
+      </c>
+      <c r="H12">
+        <v>1011.186211</v>
+      </c>
+      <c r="I12">
+        <v>0.519847143669556</v>
+      </c>
+      <c r="J12">
+        <v>0.5198471436695561</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>6.744736333333333</v>
+      </c>
+      <c r="N12">
+        <v>20.234209</v>
+      </c>
+      <c r="O12">
+        <v>0.01049273071342527</v>
+      </c>
+      <c r="P12">
+        <v>0.01049273071342527</v>
+      </c>
+      <c r="Q12">
+        <v>2273.394792365789</v>
+      </c>
+      <c r="R12">
+        <v>20460.5531312921</v>
+      </c>
+      <c r="S12">
+        <v>0.00545461609066795</v>
+      </c>
+      <c r="T12">
+        <v>0.005454616090667952</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>337.0620703333333</v>
+      </c>
+      <c r="H13">
+        <v>1011.186211</v>
+      </c>
+      <c r="I13">
+        <v>0.519847143669556</v>
+      </c>
+      <c r="J13">
+        <v>0.5198471436695561</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>182.5316823333334</v>
+      </c>
+      <c r="N13">
+        <v>547.595047</v>
+      </c>
+      <c r="O13">
+        <v>0.283963033503136</v>
+      </c>
+      <c r="P13">
+        <v>0.2839630335031361</v>
+      </c>
+      <c r="Q13">
+        <v>61524.50674869966</v>
+      </c>
+      <c r="R13">
+        <v>553720.5607382969</v>
+      </c>
+      <c r="S13">
+        <v>0.1476173718743477</v>
+      </c>
+      <c r="T13">
+        <v>0.1476173718743477</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>337.0620703333333</v>
+      </c>
+      <c r="H14">
+        <v>1011.186211</v>
+      </c>
+      <c r="I14">
+        <v>0.519847143669556</v>
+      </c>
+      <c r="J14">
+        <v>0.5198471436695561</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>249.1329143333333</v>
+      </c>
+      <c r="N14">
+        <v>747.398743</v>
+      </c>
+      <c r="O14">
+        <v>0.3875740210972192</v>
+      </c>
+      <c r="P14">
+        <v>0.3875740210972192</v>
+      </c>
+      <c r="Q14">
+        <v>83973.25589337031</v>
+      </c>
+      <c r="R14">
+        <v>755759.3030403327</v>
+      </c>
+      <c r="S14">
+        <v>0.2014792478279136</v>
+      </c>
+      <c r="T14">
+        <v>0.2014792478279137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>337.0620703333333</v>
+      </c>
+      <c r="H15">
+        <v>1011.186211</v>
+      </c>
+      <c r="I15">
+        <v>0.519847143669556</v>
+      </c>
+      <c r="J15">
+        <v>0.5198471436695561</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>186.9310863333334</v>
+      </c>
+      <c r="N15">
+        <v>560.793259</v>
+      </c>
+      <c r="O15">
+        <v>0.2908071500393791</v>
+      </c>
+      <c r="P15">
+        <v>0.2908071500393791</v>
+      </c>
+      <c r="Q15">
+        <v>63007.37896917242</v>
+      </c>
+      <c r="R15">
+        <v>567066.4107225516</v>
+      </c>
+      <c r="S15">
+        <v>0.1511752663066552</v>
+      </c>
+      <c r="T15">
+        <v>0.1511752663066552</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>337.0620703333333</v>
+      </c>
+      <c r="H16">
+        <v>1011.186211</v>
+      </c>
+      <c r="I16">
+        <v>0.519847143669556</v>
+      </c>
+      <c r="J16">
+        <v>0.5198471436695561</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>17.46044133333334</v>
+      </c>
+      <c r="N16">
+        <v>52.38132400000001</v>
+      </c>
+      <c r="O16">
+        <v>0.02716306464684043</v>
+      </c>
+      <c r="P16">
+        <v>0.02716306464684043</v>
+      </c>
+      <c r="Q16">
+        <v>5885.252504747041</v>
+      </c>
+      <c r="R16">
+        <v>52967.27254272337</v>
+      </c>
+      <c r="S16">
+        <v>0.01412064156997149</v>
+      </c>
+      <c r="T16">
+        <v>0.0141206415699715</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.2345796666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.703739</v>
+      </c>
+      <c r="I17">
+        <v>0.000361789653635684</v>
+      </c>
+      <c r="J17">
+        <v>0.000361789653635684</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>6.744736333333333</v>
+      </c>
+      <c r="N17">
+        <v>20.234209</v>
+      </c>
+      <c r="O17">
+        <v>0.01049273071342527</v>
+      </c>
+      <c r="P17">
+        <v>0.01049273071342527</v>
+      </c>
+      <c r="Q17">
+        <v>1.582178000827889</v>
+      </c>
+      <c r="R17">
+        <v>14.239602007451</v>
+      </c>
+      <c r="S17">
+        <v>3.796161410502633E-06</v>
+      </c>
+      <c r="T17">
+        <v>3.796161410502634E-06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
         <v>26</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>248.554774917238</v>
-      </c>
-      <c r="H11">
-        <v>248.554774917238</v>
-      </c>
-      <c r="I11">
-        <v>0.4466617729977641</v>
-      </c>
-      <c r="J11">
-        <v>0.4466617729977641</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>15.4869328094595</v>
-      </c>
-      <c r="N11">
-        <v>15.4869328094595</v>
-      </c>
-      <c r="O11">
-        <v>0.0244419007855228</v>
-      </c>
-      <c r="P11">
-        <v>0.0244419007855228</v>
-      </c>
-      <c r="Q11">
-        <v>3849.351098613594</v>
-      </c>
-      <c r="R11">
-        <v>3849.351098613594</v>
-      </c>
-      <c r="S11">
-        <v>0.01091726274029706</v>
-      </c>
-      <c r="T11">
-        <v>0.01091726274029706</v>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.2345796666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.703739</v>
+      </c>
+      <c r="I18">
+        <v>0.000361789653635684</v>
+      </c>
+      <c r="J18">
+        <v>0.000361789653635684</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>182.5316823333334</v>
+      </c>
+      <c r="N18">
+        <v>547.595047</v>
+      </c>
+      <c r="O18">
+        <v>0.283963033503136</v>
+      </c>
+      <c r="P18">
+        <v>0.2839630335031361</v>
+      </c>
+      <c r="Q18">
+        <v>42.81822119785922</v>
+      </c>
+      <c r="R18">
+        <v>385.363990780733</v>
+      </c>
+      <c r="S18">
+        <v>0.0001027348875364377</v>
+      </c>
+      <c r="T18">
+        <v>0.0001027348875364377</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.2345796666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.703739</v>
+      </c>
+      <c r="I19">
+        <v>0.000361789653635684</v>
+      </c>
+      <c r="J19">
+        <v>0.000361789653635684</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>249.1329143333333</v>
+      </c>
+      <c r="N19">
+        <v>747.398743</v>
+      </c>
+      <c r="O19">
+        <v>0.3875740210972192</v>
+      </c>
+      <c r="P19">
+        <v>0.3875740210972192</v>
+      </c>
+      <c r="Q19">
+        <v>58.44151600000855</v>
+      </c>
+      <c r="R19">
+        <v>525.973644000077</v>
+      </c>
+      <c r="S19">
+        <v>0.0001402202708509522</v>
+      </c>
+      <c r="T19">
+        <v>0.0001402202708509522</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.2345796666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.703739</v>
+      </c>
+      <c r="I20">
+        <v>0.000361789653635684</v>
+      </c>
+      <c r="J20">
+        <v>0.000361789653635684</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>186.9310863333334</v>
+      </c>
+      <c r="N20">
+        <v>560.793259</v>
+      </c>
+      <c r="O20">
+        <v>0.2908071500393791</v>
+      </c>
+      <c r="P20">
+        <v>0.2908071500393791</v>
+      </c>
+      <c r="Q20">
+        <v>43.85023192171123</v>
+      </c>
+      <c r="R20">
+        <v>394.652087295401</v>
+      </c>
+      <c r="S20">
+        <v>0.0001052110180875273</v>
+      </c>
+      <c r="T20">
+        <v>0.0001052110180875274</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.2345796666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.703739</v>
+      </c>
+      <c r="I21">
+        <v>0.000361789653635684</v>
+      </c>
+      <c r="J21">
+        <v>0.000361789653635684</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>17.46044133333334</v>
+      </c>
+      <c r="N21">
+        <v>52.38132400000001</v>
+      </c>
+      <c r="O21">
+        <v>0.02716306464684043</v>
+      </c>
+      <c r="P21">
+        <v>0.02716306464684043</v>
+      </c>
+      <c r="Q21">
+        <v>4.095864507826223</v>
+      </c>
+      <c r="R21">
+        <v>36.862780570436</v>
+      </c>
+      <c r="S21">
+        <v>9.827315750264091E-06</v>
+      </c>
+      <c r="T21">
+        <v>9.827315750264094E-06</v>
       </c>
     </row>
   </sheetData>
